--- a/TEST-MODEL YANG data model specification.xlsx
+++ b/TEST-MODEL YANG data model specification.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brief" sheetId="1" state="visible" r:id="rId1"/>
@@ -93,44 +93,44 @@
     </border>
   </borders>
   <cellStyleXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="headlineStyle" xfId="1"/>
-    <cellStyle hidden="0" name="columnStyle" xfId="2"/>
-    <cellStyle hidden="0" name="infoStyle" xfId="3"/>
-    <cellStyle hidden="0" name="infoBoldStyle" xfId="4"/>
-    <cellStyle hidden="0" name="normalStyle" xfId="5"/>
-    <cellStyle hidden="0" name="skipStyle" xfId="6"/>
-    <cellStyle builtinId="15" hidden="0" name="Title" xfId="7"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="headlineStyle" xfId="1" hidden="0"/>
+    <cellStyle name="columnStyle" xfId="2" hidden="0"/>
+    <cellStyle name="infoStyle" xfId="3" hidden="0"/>
+    <cellStyle name="infoBoldStyle" xfId="4" hidden="0"/>
+    <cellStyle name="normalStyle" xfId="5" hidden="0"/>
+    <cellStyle name="skipStyle" xfId="6" hidden="0"/>
+    <cellStyle name="Title" xfId="7" builtinId="15" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -140,231 +140,283 @@
     <author>pyang-excel</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="J17" shapeId="0">
+    <comment ref="C15" authorId="0" shapeId="0">
+      <text>
+        <t>This is top module</t>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <t>List nodes of the included-top</t>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0">
+      <text>
+        <t>The key of the listnode</t>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J21" shapeId="0">
+    <comment ref="E18" authorId="0" shapeId="0">
+      <text>
+        <t>The leaf of the listnode</t>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J24" shapeId="0">
+    <comment ref="D20" authorId="0" shapeId="0">
+      <text>
+        <t>The simple container in the top container.</t>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="0" shapeId="0">
+      <text>
+        <t>The simple leaf of the simple container.</t>
+      </text>
+    </comment>
+    <comment ref="J21" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J26" shapeId="0">
+    <comment ref="J25" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J30" shapeId="0">
+    <comment ref="J28" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J33" shapeId="0">
+    <comment ref="J30" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J34" shapeId="0">
+    <comment ref="J34" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J37" shapeId="0">
+    <comment ref="J37" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">string
+</t>
+      </text>
+    </comment>
+    <comment ref="J38" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">string
+</t>
+      </text>
+    </comment>
+    <comment ref="J41" authorId="0" shapeId="0">
       <text>
         <t>leafref
  : ../first</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J38" shapeId="0">
+    <comment ref="J42" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J39" shapeId="0">
+    <comment ref="J43" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J40" shapeId="0">
+    <comment ref="J44" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J42" shapeId="0">
+    <comment ref="J46" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J44" shapeId="0">
+    <comment ref="J48" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J46" shapeId="0">
+    <comment ref="J50" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J47" shapeId="0">
+    <comment ref="J51" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J49" shapeId="0">
+    <comment ref="J53" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J50" shapeId="0">
+    <comment ref="J54" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J52" shapeId="0">
-      <text>
-        <t xml:space="preserve">int8
-</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="J53" shapeId="0">
+    <comment ref="J56" authorId="0" shapeId="0">
+      <text>
+        <t>int8
+ [1..10]</t>
+      </text>
+    </comment>
+    <comment ref="J57" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">uint8
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J54" shapeId="0">
+    <comment ref="J58" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">int16
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J55" shapeId="0">
+    <comment ref="J59" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">uint16
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J56" shapeId="0">
+    <comment ref="J60" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">int32
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J57" shapeId="0">
+    <comment ref="J61" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">uint32
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J58" shapeId="0">
+    <comment ref="J62" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">int64
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J59" shapeId="0">
+    <comment ref="J63" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">uint64
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J62" shapeId="0">
+    <comment ref="J66" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">uint8
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J63" shapeId="0">
+    <comment ref="J67" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J64" shapeId="0">
+    <comment ref="J68" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J65" shapeId="0">
+    <comment ref="J69" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">bits
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J68" shapeId="0">
+    <comment ref="F72" authorId="0" shapeId="0">
+      <text>
+        <t>apa leaf</t>
+      </text>
+    </comment>
+    <comment ref="J72" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J69" shapeId="0">
+    <comment ref="F73" authorId="0" shapeId="0">
+      <text>
+        <t>snorp node</t>
+      </text>
+    </comment>
+    <comment ref="J73" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J70" shapeId="0">
+    <comment ref="J74" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">boolean
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J71" shapeId="0">
+    <comment ref="J75" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">empty
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J72" shapeId="0">
+    <comment ref="J76" authorId="0" shapeId="0">
       <text>
         <t>union
 {uint32, string}</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J73" shapeId="0">
+    <comment ref="J77" authorId="0" shapeId="0">
       <text>
         <t>percent
 uint8
  [0 .. 100]</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J74" shapeId="0">
+    <comment ref="J78" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">name
 string
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="J75" shapeId="0">
+    <comment ref="J79" authorId="0" shapeId="0">
       <text>
         <t>enumeration
  : {frib,frob,frab,}</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J76" shapeId="0">
+    <comment ref="J80" authorId="0" shapeId="0">
       <text>
         <t>enumeration
  : {fee,fie,foe,fum,}</t>
@@ -671,17 +723,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="6.25"/>
-    <col customWidth="1" max="3" min="3" width="12.25"/>
-    <col customWidth="1" max="4" min="4" width="9.25"/>
-    <col customWidth="1" max="5" min="5" width="8.5"/>
-    <col customWidth="1" max="6" min="6" width="11.5"/>
-    <col customWidth="1" max="7" min="7" width="5.5"/>
+    <col width="6.25" customWidth="1" min="2" max="2"/>
+    <col width="12.25" customWidth="1" min="3" max="3"/>
+    <col width="9.25" customWidth="1" min="4" max="4"/>
+    <col width="8.5" customWidth="1" min="5" max="5"/>
+    <col width="11.5" customWidth="1" min="6" max="6"/>
+    <col width="5.5" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1"/>
     <row r="2"/>
-    <row customHeight="1" ht="40" r="3">
+    <row r="3" ht="40" customHeight="1">
       <c r="B3" s="1" t="inlineStr">
         <is>
           <t>TEST-MODEL YANG data model</t>
@@ -929,7 +981,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -939,7 +991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,23 +999,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="2.5"/>
-    <col customWidth="1" max="3" min="3" width="3.7"/>
-    <col customWidth="1" max="4" min="4" width="4.375"/>
-    <col customWidth="1" max="5" min="5" width="4.824999999999999"/>
-    <col customWidth="1" max="6" min="6" width="5.05"/>
-    <col customWidth="1" max="7" min="7" width="6.399999999999999"/>
-    <col customWidth="1" max="8" min="8" width="8.5"/>
-    <col customWidth="1" max="9" min="9" width="7.75"/>
-    <col customWidth="1" max="10" min="10" width="9.25"/>
-    <col customWidth="1" max="11" min="11" width="4.75"/>
-    <col customWidth="1" max="12" min="12" width="5.5"/>
-    <col customWidth="1" max="13" min="13" width="75.25"/>
+    <col width="2.5" customWidth="1" min="2" max="2"/>
+    <col width="3.7" customWidth="1" min="3" max="3"/>
+    <col width="4.375" customWidth="1" min="4" max="4"/>
+    <col width="4.824999999999999" customWidth="1" min="5" max="5"/>
+    <col width="5.05" customWidth="1" min="6" max="6"/>
+    <col width="6.399999999999999" customWidth="1" min="7" max="7"/>
+    <col width="8.5" customWidth="1" min="8" max="8"/>
+    <col width="7.75" customWidth="1" min="9" max="9"/>
+    <col width="9.25" customWidth="1" min="10" max="10"/>
+    <col width="4.75" customWidth="1" min="11" max="11"/>
+    <col width="5.5" customWidth="1" min="12" max="12"/>
+    <col width="75.25" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1"/>
     <row r="2"/>
-    <row customHeight="1" ht="40" r="3">
+    <row r="3" ht="40" customHeight="1">
       <c r="B3" s="1" t="inlineStr">
         <is>
           <t>test-module YANG Data Module</t>
@@ -974,14 +1026,14 @@
     <row r="5">
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>description</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>test-module organization</t>
+          <t>test-module description</t>
         </is>
       </c>
     </row>
@@ -989,14 +1041,14 @@
     <row r="8">
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>organization</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>test-module description</t>
+          <t>test-module organization</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1111,7 @@
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>topcontainer</t>
+          <t>included-top</t>
         </is>
       </c>
       <c r="D15" s="7" t="n"/>
@@ -1079,13 +1131,13 @@
       </c>
       <c r="K15" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L15" s="4" t="inlineStr"/>
       <c r="M15" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer</t>
+          <t>/test:included-top</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1148,7 @@
       <c r="C16" s="4" t="n"/>
       <c r="D16" s="7" t="inlineStr">
         <is>
-          <t>simplecontainer</t>
+          <t>listnode[akey]</t>
         </is>
       </c>
       <c r="E16" s="7" t="n"/>
@@ -1105,7 +1157,7 @@
       <c r="H16" s="7" t="n"/>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>container</t>
+          <t>list</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
@@ -1115,13 +1167,13 @@
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L16" s="4" t="inlineStr"/>
       <c r="M16" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:simplecontainer</t>
+          <t>/test:included-top/test:listnode</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1185,7 @@
       <c r="D17" s="4" t="n"/>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>simpleleaf</t>
+          <t>akey</t>
         </is>
       </c>
       <c r="F17" s="7" t="n"/>
@@ -1151,17 +1203,13 @@
       </c>
       <c r="K17" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L17" s="4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="inlineStr"/>
       <c r="M17" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:simplecontainer/tmo:simpleleaf</t>
+          <t>/test:included-top/test:listnode/test:akey</t>
         </is>
       </c>
     </row>
@@ -1170,38 +1218,38 @@
         <v>4</v>
       </c>
       <c r="C18" s="4" t="n"/>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>(shallowchoice)</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="n"/>
+      <c r="D18" s="4" t="n"/>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>aleaf</t>
+        </is>
+      </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="7" t="n"/>
       <c r="H18" s="7" t="n"/>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>choice</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>string</t>
         </is>
       </c>
       <c r="K18" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L18" s="4" t="inlineStr">
         <is>
-          <t>Choice</t>
+          <t>?</t>
         </is>
       </c>
       <c r="M18" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer</t>
+          <t>/test:included-top/test:listnode/test:aleaf</t>
         </is>
       </c>
     </row>
@@ -1209,19 +1257,19 @@
       <c r="B19" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="7" t="inlineStr">
-        <is>
-          <t>:(erstcase)</t>
-        </is>
-      </c>
+      <c r="C19" s="7" t="inlineStr">
+        <is>
+          <t>topcontainer</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="7" t="n"/>
       <c r="H19" s="7" t="n"/>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>container</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1231,7 +1279,7 @@
       </c>
       <c r="K19" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L19" s="4" t="inlineStr"/>
@@ -1246,13 +1294,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="4" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="4" t="n"/>
-      <c r="F20" s="7" t="inlineStr">
-        <is>
-          <t>erstcase</t>
-        </is>
-      </c>
+      <c r="D20" s="7" t="inlineStr">
+        <is>
+          <t>simplecontainer</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="n"/>
+      <c r="F20" s="7" t="n"/>
       <c r="G20" s="7" t="n"/>
       <c r="H20" s="7" t="n"/>
       <c r="I20" s="4" t="inlineStr">
@@ -1267,13 +1315,13 @@
       </c>
       <c r="K20" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L20" s="4" t="inlineStr"/>
       <c r="M20" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:erstcase</t>
+          <t>/tmo:topcontainer/tmo:simplecontainer</t>
         </is>
       </c>
     </row>
@@ -1283,13 +1331,13 @@
       </c>
       <c r="C21" s="4" t="n"/>
       <c r="D21" s="4" t="n"/>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="7" t="inlineStr">
-        <is>
-          <t>erstcaseleaf</t>
-        </is>
-      </c>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>simpleleaf</t>
+        </is>
+      </c>
+      <c r="F21" s="7" t="n"/>
+      <c r="G21" s="7" t="n"/>
       <c r="H21" s="7" t="n"/>
       <c r="I21" s="4" t="inlineStr">
         <is>
@@ -1303,7 +1351,7 @@
       </c>
       <c r="K21" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L21" s="4" t="inlineStr">
@@ -1313,7 +1361,7 @@
       </c>
       <c r="M21" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:erstcase/tmo:erstcaseleaf</t>
+          <t>/tmo:topcontainer/tmo:simplecontainer/tmo:simpleleaf</t>
         </is>
       </c>
     </row>
@@ -1322,18 +1370,18 @@
         <v>8</v>
       </c>
       <c r="C22" s="4" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="7" t="inlineStr">
-        <is>
-          <t>:(zwei)</t>
-        </is>
-      </c>
+      <c r="D22" s="7" t="inlineStr">
+        <is>
+          <t>(shallowchoice)</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="n"/>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="7" t="n"/>
       <c r="H22" s="7" t="n"/>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>choice</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -1343,10 +1391,14 @@
       </c>
       <c r="K22" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L22" s="4" t="inlineStr"/>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr">
+        <is>
+          <t>Choice</t>
+        </is>
+      </c>
       <c r="M22" s="4" t="inlineStr">
         <is>
           <t>/tmo:topcontainer</t>
@@ -1359,17 +1411,17 @@
       </c>
       <c r="C23" s="4" t="n"/>
       <c r="D23" s="4" t="n"/>
-      <c r="E23" s="4" t="n"/>
-      <c r="F23" s="7" t="inlineStr">
-        <is>
-          <t>zwei</t>
-        </is>
-      </c>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>:(erstcase)</t>
+        </is>
+      </c>
+      <c r="F23" s="7" t="n"/>
       <c r="G23" s="7" t="n"/>
       <c r="H23" s="7" t="n"/>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>container</t>
+          <t>case</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -1379,13 +1431,13 @@
       </c>
       <c r="K23" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L23" s="4" t="inlineStr"/>
       <c r="M23" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:zwei</t>
+          <t>/tmo:topcontainer</t>
         </is>
       </c>
     </row>
@@ -1396,36 +1448,32 @@
       <c r="C24" s="4" t="n"/>
       <c r="D24" s="4" t="n"/>
       <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="7" t="inlineStr">
-        <is>
-          <t>zweicaseleaf</t>
-        </is>
-      </c>
+      <c r="F24" s="7" t="inlineStr">
+        <is>
+          <t>erstcase</t>
+        </is>
+      </c>
+      <c r="G24" s="7" t="n"/>
       <c r="H24" s="7" t="n"/>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>container</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr"/>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:zwei/tmo:zweicaseleaf</t>
+          <t>/tmo:topcontainer/tmo:erstcase</t>
         </is>
       </c>
     </row>
@@ -1435,33 +1483,37 @@
       </c>
       <c r="C25" s="4" t="n"/>
       <c r="D25" s="4" t="n"/>
-      <c r="E25" s="7" t="inlineStr">
-        <is>
-          <t>:(thirdbutleaf)</t>
-        </is>
-      </c>
-      <c r="F25" s="7" t="n"/>
-      <c r="G25" s="7" t="n"/>
+      <c r="E25" s="4" t="n"/>
+      <c r="F25" s="4" t="n"/>
+      <c r="G25" s="7" t="inlineStr">
+        <is>
+          <t>erstcaseleaf</t>
+        </is>
+      </c>
       <c r="H25" s="7" t="n"/>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>string</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L25" s="4" t="inlineStr"/>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L25" s="4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="M25" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer</t>
+          <t>/tmo:topcontainer/tmo:erstcase/tmo:erstcaseleaf</t>
         </is>
       </c>
     </row>
@@ -1471,37 +1523,33 @@
       </c>
       <c r="C26" s="4" t="n"/>
       <c r="D26" s="4" t="n"/>
-      <c r="E26" s="4" t="n"/>
-      <c r="F26" s="7" t="inlineStr">
-        <is>
-          <t>thirdbutleaf</t>
-        </is>
-      </c>
+      <c r="E26" s="7" t="inlineStr">
+        <is>
+          <t>:(zwei)</t>
+        </is>
+      </c>
+      <c r="F26" s="7" t="n"/>
       <c r="G26" s="7" t="n"/>
       <c r="H26" s="7" t="n"/>
       <c r="I26" s="4" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>case</t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K26" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L26" s="4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L26" s="4" t="inlineStr"/>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:thirdbutleaf</t>
+          <t>/tmo:topcontainer</t>
         </is>
       </c>
     </row>
@@ -1510,18 +1558,18 @@
         <v>13</v>
       </c>
       <c r="C27" s="4" t="n"/>
-      <c r="D27" s="7" t="inlineStr">
-        <is>
-          <t>(achoice)</t>
-        </is>
-      </c>
-      <c r="E27" s="7" t="n"/>
-      <c r="F27" s="7" t="n"/>
+      <c r="D27" s="4" t="n"/>
+      <c r="E27" s="4" t="n"/>
+      <c r="F27" s="7" t="inlineStr">
+        <is>
+          <t>zwei</t>
+        </is>
+      </c>
       <c r="G27" s="7" t="n"/>
       <c r="H27" s="7" t="n"/>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t>choice</t>
+          <t>container</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
@@ -1531,17 +1579,13 @@
       </c>
       <c r="K27" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L27" s="4" t="inlineStr">
-        <is>
-          <t>Choice</t>
-        </is>
-      </c>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L27" s="4" t="inlineStr"/>
       <c r="M27" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer</t>
+          <t>/tmo:topcontainer/tmo:zwei</t>
         </is>
       </c>
     </row>
@@ -1551,33 +1595,37 @@
       </c>
       <c r="C28" s="4" t="n"/>
       <c r="D28" s="4" t="n"/>
-      <c r="E28" s="7" t="inlineStr">
-        <is>
-          <t>:(firstcasecase)</t>
-        </is>
-      </c>
-      <c r="F28" s="7" t="n"/>
-      <c r="G28" s="7" t="n"/>
+      <c r="E28" s="4" t="n"/>
+      <c r="F28" s="4" t="n"/>
+      <c r="G28" s="7" t="inlineStr">
+        <is>
+          <t>zweicaseleaf</t>
+        </is>
+      </c>
       <c r="H28" s="7" t="n"/>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>string</t>
         </is>
       </c>
       <c r="K28" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L28" s="4" t="inlineStr"/>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L28" s="4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="M28" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer</t>
+          <t>/tmo:topcontainer/tmo:zwei/tmo:zweicaseleaf</t>
         </is>
       </c>
     </row>
@@ -1587,17 +1635,17 @@
       </c>
       <c r="C29" s="4" t="n"/>
       <c r="D29" s="4" t="n"/>
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="7" t="inlineStr">
-        <is>
-          <t>firstcase</t>
-        </is>
-      </c>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>:(thirdbutleaf)</t>
+        </is>
+      </c>
+      <c r="F29" s="7" t="n"/>
       <c r="G29" s="7" t="n"/>
       <c r="H29" s="7" t="n"/>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>container</t>
+          <t>case</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
@@ -1607,13 +1655,13 @@
       </c>
       <c r="K29" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L29" s="4" t="inlineStr"/>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:firstcase</t>
+          <t>/tmo:topcontainer</t>
         </is>
       </c>
     </row>
@@ -1624,12 +1672,12 @@
       <c r="C30" s="4" t="n"/>
       <c r="D30" s="4" t="n"/>
       <c r="E30" s="4" t="n"/>
-      <c r="F30" s="4" t="n"/>
-      <c r="G30" s="7" t="inlineStr">
-        <is>
-          <t>firstcaseleaf</t>
-        </is>
-      </c>
+      <c r="F30" s="7" t="inlineStr">
+        <is>
+          <t>thirdbutleaf</t>
+        </is>
+      </c>
+      <c r="G30" s="7" t="n"/>
       <c r="H30" s="7" t="n"/>
       <c r="I30" s="4" t="inlineStr">
         <is>
@@ -1643,7 +1691,7 @@
       </c>
       <c r="K30" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L30" s="4" t="inlineStr">
@@ -1653,7 +1701,7 @@
       </c>
       <c r="M30" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:firstcase/tmo:firstcaseleaf</t>
+          <t>/tmo:topcontainer/tmo:thirdbutleaf</t>
         </is>
       </c>
     </row>
@@ -1662,18 +1710,18 @@
         <v>17</v>
       </c>
       <c r="C31" s="4" t="n"/>
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="7" t="inlineStr">
-        <is>
-          <t>:(secondcasecase)</t>
-        </is>
-      </c>
+      <c r="D31" s="7" t="inlineStr">
+        <is>
+          <t>(achoice)</t>
+        </is>
+      </c>
+      <c r="E31" s="7" t="n"/>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="7" t="n"/>
       <c r="H31" s="7" t="n"/>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>choice</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
@@ -1683,10 +1731,14 @@
       </c>
       <c r="K31" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L31" s="4" t="inlineStr"/>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L31" s="4" t="inlineStr">
+        <is>
+          <t>Choice</t>
+        </is>
+      </c>
       <c r="M31" s="4" t="inlineStr">
         <is>
           <t>/tmo:topcontainer</t>
@@ -1699,17 +1751,17 @@
       </c>
       <c r="C32" s="4" t="n"/>
       <c r="D32" s="4" t="n"/>
-      <c r="E32" s="4" t="n"/>
-      <c r="F32" s="7" t="inlineStr">
-        <is>
-          <t>secondcontainer</t>
-        </is>
-      </c>
+      <c r="E32" s="7" t="inlineStr">
+        <is>
+          <t>:(firstcasecase)</t>
+        </is>
+      </c>
+      <c r="F32" s="7" t="n"/>
       <c r="G32" s="7" t="n"/>
       <c r="H32" s="7" t="n"/>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t>container</t>
+          <t>case</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
@@ -1719,13 +1771,13 @@
       </c>
       <c r="K32" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L32" s="4" t="inlineStr"/>
       <c r="M32" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:secondcontainer</t>
+          <t>/tmo:topcontainer</t>
         </is>
       </c>
     </row>
@@ -1736,36 +1788,32 @@
       <c r="C33" s="4" t="n"/>
       <c r="D33" s="4" t="n"/>
       <c r="E33" s="4" t="n"/>
-      <c r="F33" s="4" t="n"/>
-      <c r="G33" s="7" t="inlineStr">
-        <is>
-          <t>secondcaseleaf</t>
-        </is>
-      </c>
+      <c r="F33" s="7" t="inlineStr">
+        <is>
+          <t>firstcase</t>
+        </is>
+      </c>
+      <c r="G33" s="7" t="n"/>
       <c r="H33" s="7" t="n"/>
       <c r="I33" s="4" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>container</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L33" s="4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L33" s="4" t="inlineStr"/>
       <c r="M33" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:secondcontainer/tmo:secondcaseleaf</t>
+          <t>/tmo:topcontainer/tmo:firstcase</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1824,12 @@
       <c r="C34" s="4" t="n"/>
       <c r="D34" s="4" t="n"/>
       <c r="E34" s="4" t="n"/>
-      <c r="F34" s="7" t="inlineStr">
-        <is>
-          <t>topsecondcaseleaf</t>
-        </is>
-      </c>
-      <c r="G34" s="7" t="n"/>
+      <c r="F34" s="4" t="n"/>
+      <c r="G34" s="7" t="inlineStr">
+        <is>
+          <t>firstcaseleaf</t>
+        </is>
+      </c>
       <c r="H34" s="7" t="n"/>
       <c r="I34" s="4" t="inlineStr">
         <is>
@@ -1795,7 +1843,7 @@
       </c>
       <c r="K34" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L34" s="4" t="inlineStr">
@@ -1805,7 +1853,7 @@
       </c>
       <c r="M34" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:topsecondcaseleaf</t>
+          <t>/tmo:topcontainer/tmo:firstcase/tmo:firstcaseleaf</t>
         </is>
       </c>
     </row>
@@ -1814,18 +1862,18 @@
         <v>21</v>
       </c>
       <c r="C35" s="4" t="n"/>
-      <c r="D35" s="7" t="inlineStr">
-        <is>
-          <t>maincontainer</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="n"/>
+      <c r="D35" s="4" t="n"/>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>:(secondcasecase)</t>
+        </is>
+      </c>
       <c r="F35" s="7" t="n"/>
       <c r="G35" s="7" t="n"/>
       <c r="H35" s="7" t="n"/>
       <c r="I35" s="4" t="inlineStr">
         <is>
-          <t>container</t>
+          <t>case</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr">
@@ -1835,13 +1883,13 @@
       </c>
       <c r="K35" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L35" s="4" t="inlineStr"/>
       <c r="M35" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:maincontainer</t>
+          <t>/tmo:topcontainer</t>
         </is>
       </c>
     </row>
@@ -1851,17 +1899,17 @@
       </c>
       <c r="C36" s="4" t="n"/>
       <c r="D36" s="4" t="n"/>
-      <c r="E36" s="7" t="inlineStr">
-        <is>
-          <t>mainlist[first]</t>
-        </is>
-      </c>
-      <c r="F36" s="7" t="n"/>
+      <c r="E36" s="4" t="n"/>
+      <c r="F36" s="7" t="inlineStr">
+        <is>
+          <t>secondcontainer</t>
+        </is>
+      </c>
       <c r="G36" s="7" t="n"/>
       <c r="H36" s="7" t="n"/>
       <c r="I36" s="4" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>container</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
@@ -1871,13 +1919,13 @@
       </c>
       <c r="K36" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L36" s="4" t="inlineStr"/>
       <c r="M36" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist</t>
+          <t>/tmo:topcontainer/tmo:secondcontainer</t>
         </is>
       </c>
     </row>
@@ -1888,12 +1936,12 @@
       <c r="C37" s="4" t="n"/>
       <c r="D37" s="4" t="n"/>
       <c r="E37" s="4" t="n"/>
-      <c r="F37" s="7" t="inlineStr">
-        <is>
-          <t>aleafref</t>
-        </is>
-      </c>
-      <c r="G37" s="7" t="n"/>
+      <c r="F37" s="4" t="n"/>
+      <c r="G37" s="7" t="inlineStr">
+        <is>
+          <t>secondcaseleaf</t>
+        </is>
+      </c>
       <c r="H37" s="7" t="n"/>
       <c r="I37" s="4" t="inlineStr">
         <is>
@@ -1902,12 +1950,12 @@
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
-          <t>leafref</t>
+          <t>string</t>
         </is>
       </c>
       <c r="K37" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L37" s="4" t="inlineStr">
@@ -1917,7 +1965,7 @@
       </c>
       <c r="M37" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:aleafref</t>
+          <t>/tmo:topcontainer/tmo:secondcontainer/tmo:secondcaseleaf</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1978,7 @@
       <c r="E38" s="4" t="n"/>
       <c r="F38" s="7" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>topsecondcaseleaf</t>
         </is>
       </c>
       <c r="G38" s="7" t="n"/>
@@ -1947,13 +1995,17 @@
       </c>
       <c r="K38" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L38" s="4" t="inlineStr"/>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L38" s="4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="M38" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:first</t>
+          <t>/tmo:topcontainer/tmo:topsecondcaseleaf</t>
         </is>
       </c>
     </row>
@@ -1962,38 +2014,34 @@
         <v>25</v>
       </c>
       <c r="C39" s="4" t="n"/>
-      <c r="D39" s="4" t="n"/>
-      <c r="E39" s="4" t="n"/>
-      <c r="F39" s="7" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
+      <c r="D39" s="7" t="inlineStr">
+        <is>
+          <t>maincontainer</t>
+        </is>
+      </c>
+      <c r="E39" s="7" t="n"/>
+      <c r="F39" s="7" t="n"/>
       <c r="G39" s="7" t="n"/>
       <c r="H39" s="7" t="n"/>
       <c r="I39" s="4" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>container</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L39" s="4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="inlineStr"/>
       <c r="M39" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:second</t>
+          <t>/tmo:topcontainer/tmo:maincontainer</t>
         </is>
       </c>
     </row>
@@ -2003,37 +2051,33 @@
       </c>
       <c r="C40" s="4" t="n"/>
       <c r="D40" s="4" t="n"/>
-      <c r="E40" s="4" t="n"/>
-      <c r="F40" s="7" t="inlineStr">
-        <is>
-          <t>third</t>
-        </is>
-      </c>
+      <c r="E40" s="7" t="inlineStr">
+        <is>
+          <t>mainlist[first]</t>
+        </is>
+      </c>
+      <c r="F40" s="7" t="n"/>
       <c r="G40" s="7" t="n"/>
       <c r="H40" s="7" t="n"/>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>list</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L40" s="4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L40" s="4" t="inlineStr"/>
       <c r="M40" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:third</t>
+          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist</t>
         </is>
       </c>
     </row>
@@ -2046,30 +2090,34 @@
       <c r="E41" s="4" t="n"/>
       <c r="F41" s="7" t="inlineStr">
         <is>
-          <t>containerinlist</t>
+          <t>aleafref</t>
         </is>
       </c>
       <c r="G41" s="7" t="n"/>
       <c r="H41" s="7" t="n"/>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t>container</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>leafref</t>
         </is>
       </c>
       <c r="K41" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L41" s="4" t="inlineStr"/>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L41" s="4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="M41" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:containerinlist</t>
+          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:aleafref</t>
         </is>
       </c>
     </row>
@@ -2080,12 +2128,12 @@
       <c r="C42" s="4" t="n"/>
       <c r="D42" s="4" t="n"/>
       <c r="E42" s="4" t="n"/>
-      <c r="F42" s="4" t="n"/>
-      <c r="G42" s="7" t="inlineStr">
-        <is>
-          <t>deeperleaf</t>
-        </is>
-      </c>
+      <c r="F42" s="7" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="G42" s="7" t="n"/>
       <c r="H42" s="7" t="n"/>
       <c r="I42" s="4" t="inlineStr">
         <is>
@@ -2099,17 +2147,13 @@
       </c>
       <c r="K42" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L42" s="4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L42" s="4" t="inlineStr"/>
       <c r="M42" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:containerinlist/tmo:deeperleaf</t>
+          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:first</t>
         </is>
       </c>
     </row>
@@ -2120,32 +2164,36 @@
       <c r="C43" s="4" t="n"/>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="4" t="n"/>
-      <c r="F43" s="4" t="n"/>
-      <c r="G43" s="7" t="inlineStr">
-        <is>
-          <t>verydeeplist[akey]</t>
-        </is>
-      </c>
+      <c r="F43" s="7" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="G43" s="7" t="n"/>
       <c r="H43" s="7" t="n"/>
       <c r="I43" s="4" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>string</t>
         </is>
       </c>
       <c r="K43" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L43" s="4" t="inlineStr"/>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L43" s="4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="M43" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:containerinlist/tmo:verydeeplist</t>
+          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:second</t>
         </is>
       </c>
     </row>
@@ -2156,13 +2204,13 @@
       <c r="C44" s="4" t="n"/>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="4" t="n"/>
-      <c r="F44" s="4" t="n"/>
-      <c r="G44" s="4" t="n"/>
-      <c r="H44" s="7" t="inlineStr">
-        <is>
-          <t>akey</t>
-        </is>
-      </c>
+      <c r="F44" s="7" t="inlineStr">
+        <is>
+          <t>third</t>
+        </is>
+      </c>
+      <c r="G44" s="7" t="n"/>
+      <c r="H44" s="7" t="n"/>
       <c r="I44" s="4" t="inlineStr">
         <is>
           <t>leaf</t>
@@ -2175,13 +2223,17 @@
       </c>
       <c r="K44" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L44" s="4" t="inlineStr"/>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L44" s="4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="M44" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:containerinlist/tmo:verydeeplist/tmo:akey</t>
+          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:third</t>
         </is>
       </c>
     </row>
@@ -2194,14 +2246,14 @@
       <c r="E45" s="4" t="n"/>
       <c r="F45" s="7" t="inlineStr">
         <is>
-          <t>listinlist[lilkey]</t>
+          <t>containerinlist</t>
         </is>
       </c>
       <c r="G45" s="7" t="n"/>
       <c r="H45" s="7" t="n"/>
       <c r="I45" s="4" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>container</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
@@ -2211,13 +2263,13 @@
       </c>
       <c r="K45" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L45" s="4" t="inlineStr"/>
       <c r="M45" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:listinlist</t>
+          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:containerinlist</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2283,7 @@
       <c r="F46" s="4" t="n"/>
       <c r="G46" s="7" t="inlineStr">
         <is>
-          <t>lilkey</t>
+          <t>deeperleaf</t>
         </is>
       </c>
       <c r="H46" s="7" t="n"/>
@@ -2247,13 +2299,17 @@
       </c>
       <c r="K46" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L46" s="4" t="inlineStr"/>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L46" s="4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="M46" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:listinlist/tmo:lilkey</t>
+          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:containerinlist/tmo:deeperleaf</t>
         </is>
       </c>
     </row>
@@ -2267,33 +2323,29 @@
       <c r="F47" s="4" t="n"/>
       <c r="G47" s="7" t="inlineStr">
         <is>
-          <t>boringleaf</t>
+          <t>verydeeplist[akey]</t>
         </is>
       </c>
       <c r="H47" s="7" t="n"/>
       <c r="I47" s="4" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>list</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K47" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L47" s="4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L47" s="4" t="inlineStr"/>
       <c r="M47" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:listinlist/tmo:boringleaf</t>
+          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:containerinlist/tmo:verydeeplist</t>
         </is>
       </c>
     </row>
@@ -2305,31 +2357,31 @@
       <c r="D48" s="4" t="n"/>
       <c r="E48" s="4" t="n"/>
       <c r="F48" s="4" t="n"/>
-      <c r="G48" s="7" t="inlineStr">
-        <is>
-          <t>listinlistinlist[lilkey]</t>
-        </is>
-      </c>
-      <c r="H48" s="7" t="n"/>
+      <c r="G48" s="4" t="n"/>
+      <c r="H48" s="7" t="inlineStr">
+        <is>
+          <t>akey</t>
+        </is>
+      </c>
       <c r="I48" s="4" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>string</t>
         </is>
       </c>
       <c r="K48" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L48" s="4" t="inlineStr"/>
       <c r="M48" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:listinlist/tmo:listinlistinlist</t>
+          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:containerinlist/tmo:verydeeplist/tmo:akey</t>
         </is>
       </c>
     </row>
@@ -2340,32 +2392,32 @@
       <c r="C49" s="4" t="n"/>
       <c r="D49" s="4" t="n"/>
       <c r="E49" s="4" t="n"/>
-      <c r="F49" s="4" t="n"/>
-      <c r="G49" s="4" t="n"/>
-      <c r="H49" s="7" t="inlineStr">
-        <is>
-          <t>lilkey</t>
-        </is>
-      </c>
+      <c r="F49" s="7" t="inlineStr">
+        <is>
+          <t>listinlist[lilkey]</t>
+        </is>
+      </c>
+      <c r="G49" s="7" t="n"/>
+      <c r="H49" s="7" t="n"/>
       <c r="I49" s="4" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>list</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K49" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L49" s="4" t="inlineStr"/>
       <c r="M49" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:listinlist/tmo:listinlistinlist/tmo:lilkey</t>
+          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:listinlist</t>
         </is>
       </c>
     </row>
@@ -2377,12 +2429,12 @@
       <c r="D50" s="4" t="n"/>
       <c r="E50" s="4" t="n"/>
       <c r="F50" s="4" t="n"/>
-      <c r="G50" s="4" t="n"/>
-      <c r="H50" s="7" t="inlineStr">
-        <is>
-          <t>boringleaf</t>
-        </is>
-      </c>
+      <c r="G50" s="7" t="inlineStr">
+        <is>
+          <t>lilkey</t>
+        </is>
+      </c>
+      <c r="H50" s="7" t="n"/>
       <c r="I50" s="4" t="inlineStr">
         <is>
           <t>leaf</t>
@@ -2395,17 +2447,13 @@
       </c>
       <c r="K50" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L50" s="4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L50" s="4" t="inlineStr"/>
       <c r="M50" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:listinlist/tmo:listinlistinlist/tmo:boringleaf</t>
+          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:listinlist/tmo:lilkey</t>
         </is>
       </c>
     </row>
@@ -2414,34 +2462,38 @@
         <v>37</v>
       </c>
       <c r="C51" s="4" t="n"/>
-      <c r="D51" s="7" t="inlineStr">
-        <is>
-          <t>typetester</t>
-        </is>
-      </c>
-      <c r="E51" s="7" t="n"/>
-      <c r="F51" s="7" t="n"/>
-      <c r="G51" s="7" t="n"/>
+      <c r="D51" s="4" t="n"/>
+      <c r="E51" s="4" t="n"/>
+      <c r="F51" s="4" t="n"/>
+      <c r="G51" s="7" t="inlineStr">
+        <is>
+          <t>boringleaf</t>
+        </is>
+      </c>
       <c r="H51" s="7" t="n"/>
       <c r="I51" s="4" t="inlineStr">
         <is>
-          <t>container</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>string</t>
         </is>
       </c>
       <c r="K51" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L51" s="4" t="inlineStr"/>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L51" s="4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="M51" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:typetester</t>
+          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:listinlist/tmo:boringleaf</t>
         </is>
       </c>
     </row>
@@ -2451,37 +2503,33 @@
       </c>
       <c r="C52" s="4" t="n"/>
       <c r="D52" s="4" t="n"/>
-      <c r="E52" s="7" t="inlineStr">
-        <is>
-          <t>tint8</t>
-        </is>
-      </c>
-      <c r="F52" s="7" t="n"/>
-      <c r="G52" s="7" t="n"/>
+      <c r="E52" s="4" t="n"/>
+      <c r="F52" s="4" t="n"/>
+      <c r="G52" s="7" t="inlineStr">
+        <is>
+          <t>listinlistinlist[lilkey]</t>
+        </is>
+      </c>
       <c r="H52" s="7" t="n"/>
       <c r="I52" s="4" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>list</t>
         </is>
       </c>
       <c r="J52" s="4" t="inlineStr">
         <is>
-          <t>int8</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K52" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L52" s="4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L52" s="4" t="inlineStr"/>
       <c r="M52" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:typetester/tmo:tint8</t>
+          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:listinlist/tmo:listinlistinlist</t>
         </is>
       </c>
     </row>
@@ -2491,14 +2539,14 @@
       </c>
       <c r="C53" s="4" t="n"/>
       <c r="D53" s="4" t="n"/>
-      <c r="E53" s="7" t="inlineStr">
-        <is>
-          <t>tuint8</t>
-        </is>
-      </c>
-      <c r="F53" s="7" t="n"/>
-      <c r="G53" s="7" t="n"/>
-      <c r="H53" s="7" t="n"/>
+      <c r="E53" s="4" t="n"/>
+      <c r="F53" s="4" t="n"/>
+      <c r="G53" s="4" t="n"/>
+      <c r="H53" s="7" t="inlineStr">
+        <is>
+          <t>lilkey</t>
+        </is>
+      </c>
       <c r="I53" s="4" t="inlineStr">
         <is>
           <t>leaf</t>
@@ -2506,22 +2554,18 @@
       </c>
       <c r="J53" s="4" t="inlineStr">
         <is>
-          <t>uint8</t>
+          <t>string</t>
         </is>
       </c>
       <c r="K53" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L53" s="4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L53" s="4" t="inlineStr"/>
       <c r="M53" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:typetester/tmo:tuint8</t>
+          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:listinlist/tmo:listinlistinlist/tmo:lilkey</t>
         </is>
       </c>
     </row>
@@ -2531,14 +2575,14 @@
       </c>
       <c r="C54" s="4" t="n"/>
       <c r="D54" s="4" t="n"/>
-      <c r="E54" s="7" t="inlineStr">
-        <is>
-          <t>tint16</t>
-        </is>
-      </c>
-      <c r="F54" s="7" t="n"/>
-      <c r="G54" s="7" t="n"/>
-      <c r="H54" s="7" t="n"/>
+      <c r="E54" s="4" t="n"/>
+      <c r="F54" s="4" t="n"/>
+      <c r="G54" s="4" t="n"/>
+      <c r="H54" s="7" t="inlineStr">
+        <is>
+          <t>boringleaf</t>
+        </is>
+      </c>
       <c r="I54" s="4" t="inlineStr">
         <is>
           <t>leaf</t>
@@ -2546,12 +2590,12 @@
       </c>
       <c r="J54" s="4" t="inlineStr">
         <is>
-          <t>int16</t>
+          <t>string</t>
         </is>
       </c>
       <c r="K54" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L54" s="4" t="inlineStr">
@@ -2561,7 +2605,7 @@
       </c>
       <c r="M54" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:typetester/tmo:tint16</t>
+          <t>/tmo:topcontainer/tmo:maincontainer/tmo:mainlist/tmo:listinlist/tmo:listinlistinlist/tmo:boringleaf</t>
         </is>
       </c>
     </row>
@@ -2570,38 +2614,34 @@
         <v>41</v>
       </c>
       <c r="C55" s="4" t="n"/>
-      <c r="D55" s="4" t="n"/>
-      <c r="E55" s="7" t="inlineStr">
-        <is>
-          <t>tuint16</t>
-        </is>
-      </c>
+      <c r="D55" s="7" t="inlineStr">
+        <is>
+          <t>typetester</t>
+        </is>
+      </c>
+      <c r="E55" s="7" t="n"/>
       <c r="F55" s="7" t="n"/>
       <c r="G55" s="7" t="n"/>
       <c r="H55" s="7" t="n"/>
       <c r="I55" s="4" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>container</t>
         </is>
       </c>
       <c r="J55" s="4" t="inlineStr">
         <is>
-          <t>uint16</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K55" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L55" s="4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L55" s="4" t="inlineStr"/>
       <c r="M55" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:typetester/tmo:tuint16</t>
+          <t>/tmo:topcontainer/tmo:typetester</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2653,7 @@
       <c r="D56" s="4" t="n"/>
       <c r="E56" s="7" t="inlineStr">
         <is>
-          <t>tint32</t>
+          <t>tint8</t>
         </is>
       </c>
       <c r="F56" s="7" t="n"/>
@@ -2626,12 +2666,12 @@
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
-          <t>int32</t>
+          <t>int8</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L56" s="4" t="inlineStr">
@@ -2641,7 +2681,7 @@
       </c>
       <c r="M56" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:typetester/tmo:tint32</t>
+          <t>/tmo:topcontainer/tmo:typetester/tmo:tint8</t>
         </is>
       </c>
     </row>
@@ -2653,7 +2693,7 @@
       <c r="D57" s="4" t="n"/>
       <c r="E57" s="7" t="inlineStr">
         <is>
-          <t>tuint32</t>
+          <t>tuint8</t>
         </is>
       </c>
       <c r="F57" s="7" t="n"/>
@@ -2666,12 +2706,12 @@
       </c>
       <c r="J57" s="4" t="inlineStr">
         <is>
-          <t>uint32</t>
+          <t>uint8</t>
         </is>
       </c>
       <c r="K57" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L57" s="4" t="inlineStr">
@@ -2681,7 +2721,7 @@
       </c>
       <c r="M57" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:typetester/tmo:tuint32</t>
+          <t>/tmo:topcontainer/tmo:typetester/tmo:tuint8</t>
         </is>
       </c>
     </row>
@@ -2693,7 +2733,7 @@
       <c r="D58" s="4" t="n"/>
       <c r="E58" s="7" t="inlineStr">
         <is>
-          <t>tint64</t>
+          <t>tint16</t>
         </is>
       </c>
       <c r="F58" s="7" t="n"/>
@@ -2706,12 +2746,12 @@
       </c>
       <c r="J58" s="4" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>int16</t>
         </is>
       </c>
       <c r="K58" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L58" s="4" t="inlineStr">
@@ -2721,7 +2761,7 @@
       </c>
       <c r="M58" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:typetester/tmo:tint64</t>
+          <t>/tmo:topcontainer/tmo:typetester/tmo:tint16</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2773,7 @@
       <c r="D59" s="4" t="n"/>
       <c r="E59" s="7" t="inlineStr">
         <is>
-          <t>tuint64</t>
+          <t>tuint16</t>
         </is>
       </c>
       <c r="F59" s="7" t="n"/>
@@ -2746,12 +2786,12 @@
       </c>
       <c r="J59" s="4" t="inlineStr">
         <is>
-          <t>uint64</t>
+          <t>uint16</t>
         </is>
       </c>
       <c r="K59" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L59" s="4" t="inlineStr">
@@ -2761,7 +2801,7 @@
       </c>
       <c r="M59" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:typetester/tmo:tuint64</t>
+          <t>/tmo:topcontainer/tmo:typetester/tmo:tuint16</t>
         </is>
       </c>
     </row>
@@ -2770,34 +2810,38 @@
         <v>46</v>
       </c>
       <c r="C60" s="4" t="n"/>
-      <c r="D60" s="7" t="inlineStr">
-        <is>
-          <t>acontainer</t>
-        </is>
-      </c>
-      <c r="E60" s="7" t="n"/>
+      <c r="D60" s="4" t="n"/>
+      <c r="E60" s="7" t="inlineStr">
+        <is>
+          <t>tint32</t>
+        </is>
+      </c>
       <c r="F60" s="7" t="n"/>
       <c r="G60" s="7" t="n"/>
       <c r="H60" s="7" t="n"/>
       <c r="I60" s="4" t="inlineStr">
         <is>
-          <t>container</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="J60" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="K60" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L60" s="4" t="inlineStr"/>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L60" s="4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="M60" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:acontainer</t>
+          <t>/tmo:topcontainer/tmo:typetester/tmo:tint32</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2853,7 @@
       <c r="D61" s="4" t="n"/>
       <c r="E61" s="7" t="inlineStr">
         <is>
-          <t>subcontainer</t>
+          <t>tuint32</t>
         </is>
       </c>
       <c r="F61" s="7" t="n"/>
@@ -2817,23 +2861,27 @@
       <c r="H61" s="7" t="n"/>
       <c r="I61" s="4" t="inlineStr">
         <is>
-          <t>container</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="J61" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>uint32</t>
         </is>
       </c>
       <c r="K61" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L61" s="4" t="inlineStr"/>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L61" s="4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="M61" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:acontainer/tmo:subcontainer</t>
+          <t>/tmo:topcontainer/tmo:typetester/tmo:tuint32</t>
         </is>
       </c>
     </row>
@@ -2843,12 +2891,12 @@
       </c>
       <c r="C62" s="4" t="n"/>
       <c r="D62" s="4" t="n"/>
-      <c r="E62" s="4" t="n"/>
-      <c r="F62" s="7" t="inlineStr">
-        <is>
-          <t>deepleaf</t>
-        </is>
-      </c>
+      <c r="E62" s="7" t="inlineStr">
+        <is>
+          <t>tint64</t>
+        </is>
+      </c>
+      <c r="F62" s="7" t="n"/>
       <c r="G62" s="7" t="n"/>
       <c r="H62" s="7" t="n"/>
       <c r="I62" s="4" t="inlineStr">
@@ -2858,12 +2906,12 @@
       </c>
       <c r="J62" s="4" t="inlineStr">
         <is>
-          <t>uint8</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="K62" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L62" s="4" t="inlineStr">
@@ -2873,7 +2921,7 @@
       </c>
       <c r="M62" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:acontainer/tmo:subcontainer/tmo:deepleaf</t>
+          <t>/tmo:topcontainer/tmo:typetester/tmo:tint64</t>
         </is>
       </c>
     </row>
@@ -2882,38 +2930,38 @@
         <v>49</v>
       </c>
       <c r="C63" s="4" t="n"/>
-      <c r="D63" s="7" t="inlineStr">
-        <is>
-          <t>aleaflist</t>
-        </is>
-      </c>
-      <c r="E63" s="7" t="n"/>
+      <c r="D63" s="4" t="n"/>
+      <c r="E63" s="7" t="inlineStr">
+        <is>
+          <t>tuint64</t>
+        </is>
+      </c>
       <c r="F63" s="7" t="n"/>
       <c r="G63" s="7" t="n"/>
       <c r="H63" s="7" t="n"/>
       <c r="I63" s="4" t="inlineStr">
         <is>
-          <t>leaf-list</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="J63" s="4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>uint64</t>
         </is>
       </c>
       <c r="K63" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L63" s="4" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>?</t>
         </is>
       </c>
       <c r="M63" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:aleaflist</t>
+          <t>/tmo:topcontainer/tmo:typetester/tmo:tuint64</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2972,7 @@
       <c r="C64" s="4" t="n"/>
       <c r="D64" s="7" t="inlineStr">
         <is>
-          <t>topleaf</t>
+          <t>acontainer</t>
         </is>
       </c>
       <c r="E64" s="7" t="n"/>
@@ -2933,12 +2981,12 @@
       <c r="H64" s="7" t="n"/>
       <c r="I64" s="4" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>container</t>
         </is>
       </c>
       <c r="J64" s="4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K64" s="4" t="inlineStr">
@@ -2946,14 +2994,10 @@
           <t>ro</t>
         </is>
       </c>
-      <c r="L64" s="4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+      <c r="L64" s="4" t="inlineStr"/>
       <c r="M64" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:topleaf</t>
+          <t>/tmo:topcontainer/tmo:acontainer</t>
         </is>
       </c>
     </row>
@@ -2962,23 +3006,23 @@
         <v>51</v>
       </c>
       <c r="C65" s="4" t="n"/>
-      <c r="D65" s="7" t="inlineStr">
-        <is>
-          <t>abitleaf</t>
-        </is>
-      </c>
-      <c r="E65" s="7" t="n"/>
+      <c r="D65" s="4" t="n"/>
+      <c r="E65" s="7" t="inlineStr">
+        <is>
+          <t>subcontainer</t>
+        </is>
+      </c>
       <c r="F65" s="7" t="n"/>
       <c r="G65" s="7" t="n"/>
       <c r="H65" s="7" t="n"/>
       <c r="I65" s="4" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>container</t>
         </is>
       </c>
       <c r="J65" s="4" t="inlineStr">
         <is>
-          <t>bits</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K65" s="4" t="inlineStr">
@@ -2986,14 +3030,10 @@
           <t>ro</t>
         </is>
       </c>
-      <c r="L65" s="4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+      <c r="L65" s="4" t="inlineStr"/>
       <c r="M65" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:abitleaf</t>
+          <t>/tmo:topcontainer/tmo:acontainer/tmo:subcontainer</t>
         </is>
       </c>
     </row>
@@ -3002,23 +3042,23 @@
         <v>52</v>
       </c>
       <c r="C66" s="4" t="n"/>
-      <c r="D66" s="7" t="inlineStr">
-        <is>
-          <t>usescontainer</t>
-        </is>
-      </c>
-      <c r="E66" s="7" t="n"/>
-      <c r="F66" s="7" t="n"/>
+      <c r="D66" s="4" t="n"/>
+      <c r="E66" s="4" t="n"/>
+      <c r="F66" s="7" t="inlineStr">
+        <is>
+          <t>deepleaf</t>
+        </is>
+      </c>
       <c r="G66" s="7" t="n"/>
       <c r="H66" s="7" t="n"/>
       <c r="I66" s="4" t="inlineStr">
         <is>
-          <t>container</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="J66" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>uint8</t>
         </is>
       </c>
       <c r="K66" s="4" t="inlineStr">
@@ -3026,10 +3066,14 @@
           <t>ro</t>
         </is>
       </c>
-      <c r="L66" s="4" t="inlineStr"/>
+      <c r="L66" s="4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="M66" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:usescontainer</t>
+          <t>/tmo:topcontainer/tmo:acontainer/tmo:subcontainer/tmo:deepleaf</t>
         </is>
       </c>
     </row>
@@ -3038,34 +3082,38 @@
         <v>53</v>
       </c>
       <c r="C67" s="4" t="n"/>
-      <c r="D67" s="4" t="n"/>
-      <c r="E67" s="7" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
+      <c r="D67" s="7" t="inlineStr">
+        <is>
+          <t>aleaflist</t>
+        </is>
+      </c>
+      <c r="E67" s="7" t="n"/>
       <c r="F67" s="7" t="n"/>
       <c r="G67" s="7" t="n"/>
       <c r="H67" s="7" t="n"/>
       <c r="I67" s="4" t="inlineStr">
         <is>
-          <t>container</t>
+          <t>leaf-list</t>
         </is>
       </c>
       <c r="J67" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>string</t>
         </is>
       </c>
       <c r="K67" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L67" s="4" t="inlineStr"/>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L67" s="4" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="M67" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:usescontainer/tmo:abc</t>
+          <t>/tmo:topcontainer/tmo:aleaflist</t>
         </is>
       </c>
     </row>
@@ -3074,13 +3122,13 @@
         <v>54</v>
       </c>
       <c r="C68" s="4" t="n"/>
-      <c r="D68" s="4" t="n"/>
-      <c r="E68" s="4" t="n"/>
-      <c r="F68" s="7" t="inlineStr">
-        <is>
-          <t>apa</t>
-        </is>
-      </c>
+      <c r="D68" s="7" t="inlineStr">
+        <is>
+          <t>topleaf</t>
+        </is>
+      </c>
+      <c r="E68" s="7" t="n"/>
+      <c r="F68" s="7" t="n"/>
       <c r="G68" s="7" t="n"/>
       <c r="H68" s="7" t="n"/>
       <c r="I68" s="4" t="inlineStr">
@@ -3095,7 +3143,7 @@
       </c>
       <c r="K68" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L68" s="4" t="inlineStr">
@@ -3105,7 +3153,7 @@
       </c>
       <c r="M68" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:usescontainer/tmo:abc/tmo:apa</t>
+          <t>/tmo:topcontainer/tmo:topleaf</t>
         </is>
       </c>
     </row>
@@ -3114,13 +3162,13 @@
         <v>55</v>
       </c>
       <c r="C69" s="4" t="n"/>
-      <c r="D69" s="4" t="n"/>
-      <c r="E69" s="4" t="n"/>
-      <c r="F69" s="7" t="inlineStr">
-        <is>
-          <t>snorp</t>
-        </is>
-      </c>
+      <c r="D69" s="7" t="inlineStr">
+        <is>
+          <t>abitleaf</t>
+        </is>
+      </c>
+      <c r="E69" s="7" t="n"/>
+      <c r="F69" s="7" t="n"/>
       <c r="G69" s="7" t="n"/>
       <c r="H69" s="7" t="n"/>
       <c r="I69" s="4" t="inlineStr">
@@ -3130,12 +3178,12 @@
       </c>
       <c r="J69" s="4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>bits</t>
         </is>
       </c>
       <c r="K69" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L69" s="4" t="inlineStr">
@@ -3145,7 +3193,7 @@
       </c>
       <c r="M69" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:usescontainer/tmo:abc/tmo:snorp</t>
+          <t>/tmo:topcontainer/tmo:abitleaf</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3204,7 @@
       <c r="C70" s="4" t="n"/>
       <c r="D70" s="7" t="inlineStr">
         <is>
-          <t>abooleanleaf</t>
+          <t>usescontainer</t>
         </is>
       </c>
       <c r="E70" s="7" t="n"/>
@@ -3165,27 +3213,23 @@
       <c r="H70" s="7" t="n"/>
       <c r="I70" s="4" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>container</t>
         </is>
       </c>
       <c r="J70" s="4" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K70" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L70" s="4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L70" s="4" t="inlineStr"/>
       <c r="M70" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:abooleanleaf</t>
+          <t>/tmo:topcontainer/tmo:usescontainer</t>
         </is>
       </c>
     </row>
@@ -3194,38 +3238,34 @@
         <v>57</v>
       </c>
       <c r="C71" s="4" t="n"/>
-      <c r="D71" s="7" t="inlineStr">
-        <is>
-          <t>anemptyleaf</t>
-        </is>
-      </c>
-      <c r="E71" s="7" t="n"/>
+      <c r="D71" s="4" t="n"/>
+      <c r="E71" s="7" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
       <c r="F71" s="7" t="n"/>
       <c r="G71" s="7" t="n"/>
       <c r="H71" s="7" t="n"/>
       <c r="I71" s="4" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>container</t>
         </is>
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L71" s="4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L71" s="4" t="inlineStr"/>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:anemptyleaf</t>
+          <t>/tmo:topcontainer/tmo:usescontainer/tmo:abc</t>
         </is>
       </c>
     </row>
@@ -3234,13 +3274,13 @@
         <v>58</v>
       </c>
       <c r="C72" s="4" t="n"/>
-      <c r="D72" s="7" t="inlineStr">
-        <is>
-          <t>aunion</t>
-        </is>
-      </c>
-      <c r="E72" s="7" t="n"/>
-      <c r="F72" s="7" t="n"/>
+      <c r="D72" s="4" t="n"/>
+      <c r="E72" s="4" t="n"/>
+      <c r="F72" s="7" t="inlineStr">
+        <is>
+          <t>apa</t>
+        </is>
+      </c>
       <c r="G72" s="7" t="n"/>
       <c r="H72" s="7" t="n"/>
       <c r="I72" s="4" t="inlineStr">
@@ -3250,12 +3290,12 @@
       </c>
       <c r="J72" s="4" t="inlineStr">
         <is>
-          <t>union</t>
+          <t>string</t>
         </is>
       </c>
       <c r="K72" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L72" s="4" t="inlineStr">
@@ -3265,7 +3305,7 @@
       </c>
       <c r="M72" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:aunion</t>
+          <t>/tmo:topcontainer/tmo:usescontainer/tmo:abc/tmo:apa</t>
         </is>
       </c>
     </row>
@@ -3274,13 +3314,13 @@
         <v>59</v>
       </c>
       <c r="C73" s="4" t="n"/>
-      <c r="D73" s="7" t="inlineStr">
-        <is>
-          <t>typedefleaf</t>
-        </is>
-      </c>
-      <c r="E73" s="7" t="n"/>
-      <c r="F73" s="7" t="n"/>
+      <c r="D73" s="4" t="n"/>
+      <c r="E73" s="4" t="n"/>
+      <c r="F73" s="7" t="inlineStr">
+        <is>
+          <t>snorp</t>
+        </is>
+      </c>
       <c r="G73" s="7" t="n"/>
       <c r="H73" s="7" t="n"/>
       <c r="I73" s="4" t="inlineStr">
@@ -3290,12 +3330,12 @@
       </c>
       <c r="J73" s="4" t="inlineStr">
         <is>
-          <t>percent</t>
+          <t>string</t>
         </is>
       </c>
       <c r="K73" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L73" s="4" t="inlineStr">
@@ -3305,7 +3345,7 @@
       </c>
       <c r="M73" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:typedefleaf</t>
+          <t>/tmo:topcontainer/tmo:usescontainer/tmo:abc/tmo:snorp</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3356,7 @@
       <c r="C74" s="4" t="n"/>
       <c r="D74" s="7" t="inlineStr">
         <is>
-          <t>typedefleaftwo</t>
+          <t>abooleanleaf</t>
         </is>
       </c>
       <c r="E74" s="7" t="n"/>
@@ -3330,12 +3370,12 @@
       </c>
       <c r="J74" s="4" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="K74" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L74" s="4" t="inlineStr">
@@ -3345,7 +3385,7 @@
       </c>
       <c r="M74" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:typedefleaftwo</t>
+          <t>/tmo:topcontainer/tmo:abooleanleaf</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3396,7 @@
       <c r="C75" s="4" t="n"/>
       <c r="D75" s="7" t="inlineStr">
         <is>
-          <t>enumtest</t>
+          <t>anemptyleaf</t>
         </is>
       </c>
       <c r="E75" s="7" t="n"/>
@@ -3370,12 +3410,12 @@
       </c>
       <c r="J75" s="4" t="inlineStr">
         <is>
-          <t>enumeration</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="K75" s="4" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="L75" s="4" t="inlineStr">
@@ -3385,7 +3425,7 @@
       </c>
       <c r="M75" s="4" t="inlineStr">
         <is>
-          <t>/tmo:topcontainer/tmo:enumtest</t>
+          <t>/tmo:topcontainer/tmo:anemptyleaf</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3436,7 @@
       <c r="C76" s="4" t="n"/>
       <c r="D76" s="7" t="inlineStr">
         <is>
-          <t>sneakyleaflist</t>
+          <t>aunion</t>
         </is>
       </c>
       <c r="E76" s="7" t="n"/>
@@ -3405,25 +3445,185 @@
       <c r="H76" s="7" t="n"/>
       <c r="I76" s="4" t="inlineStr">
         <is>
+          <t>leaf</t>
+        </is>
+      </c>
+      <c r="J76" s="4" t="inlineStr">
+        <is>
+          <t>union</t>
+        </is>
+      </c>
+      <c r="K76" s="4" t="inlineStr">
+        <is>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L76" s="4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="M76" s="4" t="inlineStr">
+        <is>
+          <t>/tmo:topcontainer/tmo:aunion</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="C77" s="4" t="n"/>
+      <c r="D77" s="7" t="inlineStr">
+        <is>
+          <t>typedefleaf</t>
+        </is>
+      </c>
+      <c r="E77" s="7" t="n"/>
+      <c r="F77" s="7" t="n"/>
+      <c r="G77" s="7" t="n"/>
+      <c r="H77" s="7" t="n"/>
+      <c r="I77" s="4" t="inlineStr">
+        <is>
+          <t>leaf</t>
+        </is>
+      </c>
+      <c r="J77" s="4" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="K77" s="4" t="inlineStr">
+        <is>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L77" s="4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="M77" s="4" t="inlineStr">
+        <is>
+          <t>/tmo:topcontainer/tmo:typedefleaf</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="4" t="n">
+        <v>64</v>
+      </c>
+      <c r="C78" s="4" t="n"/>
+      <c r="D78" s="7" t="inlineStr">
+        <is>
+          <t>typedefleaftwo</t>
+        </is>
+      </c>
+      <c r="E78" s="7" t="n"/>
+      <c r="F78" s="7" t="n"/>
+      <c r="G78" s="7" t="n"/>
+      <c r="H78" s="7" t="n"/>
+      <c r="I78" s="4" t="inlineStr">
+        <is>
+          <t>leaf</t>
+        </is>
+      </c>
+      <c r="J78" s="4" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="K78" s="4" t="inlineStr">
+        <is>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L78" s="4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="M78" s="4" t="inlineStr">
+        <is>
+          <t>/tmo:topcontainer/tmo:typedefleaftwo</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="C79" s="4" t="n"/>
+      <c r="D79" s="7" t="inlineStr">
+        <is>
+          <t>enumtest</t>
+        </is>
+      </c>
+      <c r="E79" s="7" t="n"/>
+      <c r="F79" s="7" t="n"/>
+      <c r="G79" s="7" t="n"/>
+      <c r="H79" s="7" t="n"/>
+      <c r="I79" s="4" t="inlineStr">
+        <is>
+          <t>leaf</t>
+        </is>
+      </c>
+      <c r="J79" s="4" t="inlineStr">
+        <is>
+          <t>enumeration</t>
+        </is>
+      </c>
+      <c r="K79" s="4" t="inlineStr">
+        <is>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L79" s="4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="M79" s="4" t="inlineStr">
+        <is>
+          <t>/tmo:topcontainer/tmo:enumtest</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="C80" s="4" t="n"/>
+      <c r="D80" s="7" t="inlineStr">
+        <is>
+          <t>sneakyleaflist</t>
+        </is>
+      </c>
+      <c r="E80" s="7" t="n"/>
+      <c r="F80" s="7" t="n"/>
+      <c r="G80" s="7" t="n"/>
+      <c r="H80" s="7" t="n"/>
+      <c r="I80" s="4" t="inlineStr">
+        <is>
           <t>leaf-list</t>
         </is>
       </c>
-      <c r="J76" s="4" t="inlineStr">
+      <c r="J80" s="4" t="inlineStr">
         <is>
           <t>enumeration</t>
         </is>
       </c>
-      <c r="K76" s="4" t="inlineStr">
-        <is>
-          <t>ro</t>
-        </is>
-      </c>
-      <c r="L76" s="4" t="inlineStr">
+      <c r="K80" s="4" t="inlineStr">
+        <is>
+          <t>rw</t>
+        </is>
+      </c>
+      <c r="L80" s="4" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="M76" s="4" t="inlineStr">
+      <c r="M80" s="4" t="inlineStr">
         <is>
           <t>/tmo:topcontainer/tmo:sneakyleaflist</t>
         </is>
@@ -3433,7 +3633,7 @@
   <mergeCells count="1">
     <mergeCell ref="C14:H14"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>